--- a/ProbableCasesOverTimeByCounty/2021-01-22.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-01-22.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 01/21/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 01/22/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Probable 2021-01-21</t>
+  </si>
+  <si>
+    <t>Probable 2021-01-22</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1227,6 +1230,7 @@
     <col min="81" max="81" width="12.0" customWidth="true"/>
     <col min="82" max="82" width="12.0" customWidth="true"/>
     <col min="83" max="83" width="12.0" customWidth="true"/>
+    <col min="84" max="84" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1489,10 +1493,13 @@
       <c r="CE3" t="s" s="10">
         <v>84</v>
       </c>
+      <c r="CF3" t="s" s="10">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -1738,12 +1745,15 @@
         <v>1114.0</v>
       </c>
       <c r="CE4" t="n">
+        <v>1118.0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>1118.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1989,12 +1999,15 @@
         <v>0.0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2241,11 +2254,14 @@
       </c>
       <c r="CE6" t="n">
         <v>2636.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>2688.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -2492,11 +2508,14 @@
       </c>
       <c r="CE7" t="n">
         <v>235.0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -2743,11 +2762,14 @@
       </c>
       <c r="CE8" t="n">
         <v>83.0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -2994,11 +3016,14 @@
       </c>
       <c r="CE9" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -3245,11 +3270,14 @@
       </c>
       <c r="CE10" t="n">
         <v>911.0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>925.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -3496,11 +3524,14 @@
       </c>
       <c r="CE11" t="n">
         <v>165.0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -3747,11 +3778,14 @@
       </c>
       <c r="CE12" t="n">
         <v>194.0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -3998,11 +4032,14 @@
       </c>
       <c r="CE13" t="n">
         <v>189.0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -4249,11 +4286,14 @@
       </c>
       <c r="CE14" t="n">
         <v>1132.0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>1152.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -4500,11 +4540,14 @@
       </c>
       <c r="CE15" t="n">
         <v>169.0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -4751,11 +4794,14 @@
       </c>
       <c r="CE16" t="n">
         <v>385.0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>387.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5001,12 +5047,15 @@
         <v>0.0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -5253,11 +5302,14 @@
       </c>
       <c r="CE18" t="n">
         <v>25744.0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>25908.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -5504,11 +5556,14 @@
       </c>
       <c r="CE19" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -5754,12 +5809,15 @@
         <v>6.0</v>
       </c>
       <c r="CE20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -6005,12 +6063,15 @@
         <v>190.0</v>
       </c>
       <c r="CE21" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>190.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -6257,11 +6318,14 @@
       </c>
       <c r="CE22" t="n">
         <v>1373.0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>1400.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -6508,11 +6572,14 @@
       </c>
       <c r="CE23" t="n">
         <v>2951.0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>3021.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -6759,11 +6826,14 @@
       </c>
       <c r="CE24" t="n">
         <v>2830.0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>2874.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -7009,12 +7079,15 @@
         <v>39.0</v>
       </c>
       <c r="CE25" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -7261,11 +7334,14 @@
       </c>
       <c r="CE26" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -7512,11 +7588,14 @@
       </c>
       <c r="CE27" t="n">
         <v>102.0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -7763,11 +7842,14 @@
       </c>
       <c r="CE28" t="n">
         <v>1825.0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>1854.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -8014,11 +8096,14 @@
       </c>
       <c r="CE29" t="n">
         <v>189.0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -8265,11 +8350,14 @@
       </c>
       <c r="CE30" t="n">
         <v>190.0</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -8516,11 +8604,14 @@
       </c>
       <c r="CE31" t="n">
         <v>179.0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -8767,11 +8858,14 @@
       </c>
       <c r="CE32" t="n">
         <v>121.0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -9018,11 +9112,14 @@
       </c>
       <c r="CE33" t="n">
         <v>474.0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>479.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -9268,12 +9365,15 @@
         <v>0.0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -9520,11 +9620,14 @@
       </c>
       <c r="CE35" t="n">
         <v>283.0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>301.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -9771,11 +9874,14 @@
       </c>
       <c r="CE36" t="n">
         <v>134.0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -10022,11 +10128,14 @@
       </c>
       <c r="CE37" t="n">
         <v>499.0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>503.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -10273,11 +10382,14 @@
       </c>
       <c r="CE38" t="n">
         <v>235.0</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -10523,12 +10635,15 @@
         <v>0.0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -10775,11 +10890,14 @@
       </c>
       <c r="CE40" t="n">
         <v>1470.0</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>1482.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -11025,12 +11143,15 @@
         <v>17.0</v>
       </c>
       <c r="CE41" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -11277,11 +11398,14 @@
       </c>
       <c r="CE42" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CF42" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -11527,12 +11651,15 @@
         <v>13.0</v>
       </c>
       <c r="CE43" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -11778,12 +11905,15 @@
         <v>201.0</v>
       </c>
       <c r="CE44" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -12030,11 +12160,14 @@
       </c>
       <c r="CE45" t="n">
         <v>167.0</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -12281,11 +12414,14 @@
       </c>
       <c r="CE46" t="n">
         <v>9062.0</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>9208.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -12532,11 +12668,14 @@
       </c>
       <c r="CE47" t="n">
         <v>66.0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -12783,11 +12922,14 @@
       </c>
       <c r="CE48" t="n">
         <v>175.0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -13034,11 +13176,14 @@
       </c>
       <c r="CE49" t="n">
         <v>3272.0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>3339.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -13284,12 +13429,15 @@
         <v>203.0</v>
       </c>
       <c r="CE50" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -13536,11 +13684,14 @@
       </c>
       <c r="CE51" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -13787,11 +13938,14 @@
       </c>
       <c r="CE52" t="n">
         <v>339.0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>340.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -14038,11 +14192,14 @@
       </c>
       <c r="CE53" t="n">
         <v>127.0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -14288,12 +14445,15 @@
         <v>45.0</v>
       </c>
       <c r="CE54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -14539,12 +14699,15 @@
         <v>303.0</v>
       </c>
       <c r="CE55" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="CF55" t="n">
         <v>305.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -14790,12 +14953,15 @@
         <v>266.0</v>
       </c>
       <c r="CE56" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>267.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -15042,11 +15208,14 @@
       </c>
       <c r="CE57" t="n">
         <v>128.0</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -15292,12 +15461,15 @@
         <v>18.0</v>
       </c>
       <c r="CE58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -15543,12 +15715,15 @@
         <v>36.0</v>
       </c>
       <c r="CE59" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -15795,11 +15970,14 @@
       </c>
       <c r="CE60" t="n">
         <v>27495.0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>28061.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -16045,12 +16223,15 @@
         <v>0.0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -16297,11 +16478,14 @@
       </c>
       <c r="CE62" t="n">
         <v>568.0</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>590.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -16548,11 +16732,14 @@
       </c>
       <c r="CE63" t="n">
         <v>98.0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -16799,11 +16986,14 @@
       </c>
       <c r="CE64" t="n">
         <v>9397.0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>9598.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -17049,12 +17239,15 @@
         <v>0.0</v>
       </c>
       <c r="CE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -17300,12 +17493,15 @@
         <v>46.0</v>
       </c>
       <c r="CE66" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -17551,12 +17747,15 @@
         <v>86.0</v>
       </c>
       <c r="CE67" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>85.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -17803,11 +18002,14 @@
       </c>
       <c r="CE68" t="n">
         <v>150.0</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -18053,12 +18255,15 @@
         <v>93.0</v>
       </c>
       <c r="CE69" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>93.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -18304,12 +18509,15 @@
         <v>274.0</v>
       </c>
       <c r="CE70" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="CF70" t="n">
         <v>277.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -18556,11 +18764,14 @@
       </c>
       <c r="CE71" t="n">
         <v>6048.0</v>
+      </c>
+      <c r="CF71" t="n">
+        <v>6160.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -18807,11 +19018,14 @@
       </c>
       <c r="CE72" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CF72" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -19058,11 +19272,14 @@
       </c>
       <c r="CE73" t="n">
         <v>2051.0</v>
+      </c>
+      <c r="CF73" t="n">
+        <v>2090.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -19308,12 +19525,15 @@
         <v>0.0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -19560,11 +19780,14 @@
       </c>
       <c r="CE75" t="n">
         <v>1137.0</v>
+      </c>
+      <c r="CF75" t="n">
+        <v>1139.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -19810,12 +20033,15 @@
         <v>65.0</v>
       </c>
       <c r="CE76" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -20062,11 +20288,14 @@
       </c>
       <c r="CE77" t="n">
         <v>404.0</v>
+      </c>
+      <c r="CF77" t="n">
+        <v>421.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -20313,11 +20542,14 @@
       </c>
       <c r="CE78" t="n">
         <v>645.0</v>
+      </c>
+      <c r="CF78" t="n">
+        <v>665.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -20563,12 +20795,15 @@
         <v>0.0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -20815,11 +21050,14 @@
       </c>
       <c r="CE80" t="n">
         <v>363.0</v>
+      </c>
+      <c r="CF80" t="n">
+        <v>379.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -21065,12 +21303,15 @@
         <v>31.0</v>
       </c>
       <c r="CE81" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -21317,11 +21558,14 @@
       </c>
       <c r="CE82" t="n">
         <v>5076.0</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>5316.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -21568,11 +21812,14 @@
       </c>
       <c r="CE83" t="n">
         <v>168.0</v>
+      </c>
+      <c r="CF83" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -21818,12 +22065,15 @@
         <v>316.0</v>
       </c>
       <c r="CE84" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="CF84" t="n">
         <v>320.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -22070,11 +22320,14 @@
       </c>
       <c r="CE85" t="n">
         <v>397.0</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -22320,12 +22573,15 @@
         <v>0.0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -22572,11 +22828,14 @@
       </c>
       <c r="CE87" t="n">
         <v>3253.0</v>
+      </c>
+      <c r="CF87" t="n">
+        <v>3402.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -22823,11 +23082,14 @@
       </c>
       <c r="CE88" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -23074,11 +23336,14 @@
       </c>
       <c r="CE89" t="n">
         <v>511.0</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>527.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -23324,12 +23589,15 @@
         <v>53.0</v>
       </c>
       <c r="CE90" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CF90" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -23575,12 +23843,15 @@
         <v>79.0</v>
       </c>
       <c r="CE91" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -23827,11 +24098,14 @@
       </c>
       <c r="CE92" t="n">
         <v>156.0</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -24078,11 +24352,14 @@
       </c>
       <c r="CE93" t="n">
         <v>239.0</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>249.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -24328,12 +24605,15 @@
         <v>0.0</v>
       </c>
       <c r="CE94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -24579,12 +24859,15 @@
         <v>3755.0</v>
       </c>
       <c r="CE95" t="n">
+        <v>3805.0</v>
+      </c>
+      <c r="CF95" t="n">
         <v>3805.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -24830,12 +25113,15 @@
         <v>211.0</v>
       </c>
       <c r="CE96" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="CF96" t="n">
         <v>213.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -25082,11 +25368,14 @@
       </c>
       <c r="CE97" t="n">
         <v>1746.0</v>
+      </c>
+      <c r="CF97" t="n">
+        <v>1831.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -25332,12 +25621,15 @@
         <v>0.0</v>
       </c>
       <c r="CE98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -25584,11 +25876,14 @@
       </c>
       <c r="CE99" t="n">
         <v>76.0</v>
+      </c>
+      <c r="CF99" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -25834,12 +26129,15 @@
         <v>39.0</v>
       </c>
       <c r="CE100" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -26086,11 +26384,14 @@
       </c>
       <c r="CE101" t="n">
         <v>356.0</v>
+      </c>
+      <c r="CF101" t="n">
+        <v>362.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -26336,12 +26637,15 @@
         <v>54.0</v>
       </c>
       <c r="CE102" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CF102" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -26588,11 +26892,14 @@
       </c>
       <c r="CE103" t="n">
         <v>1914.0</v>
+      </c>
+      <c r="CF103" t="n">
+        <v>1936.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -26838,12 +27145,15 @@
         <v>0.0</v>
       </c>
       <c r="CE104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -27090,11 +27400,14 @@
       </c>
       <c r="CE105" t="n">
         <v>1687.0</v>
+      </c>
+      <c r="CF105" t="n">
+        <v>1716.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -27340,12 +27653,15 @@
         <v>26.0</v>
       </c>
       <c r="CE106" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CF106" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -27592,11 +27908,14 @@
       </c>
       <c r="CE107" t="n">
         <v>206.0</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -27843,11 +28162,14 @@
       </c>
       <c r="CE108" t="n">
         <v>1585.0</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>1612.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -28094,11 +28416,14 @@
       </c>
       <c r="CE109" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -28344,12 +28669,15 @@
         <v>1480.0</v>
       </c>
       <c r="CE110" t="n">
+        <v>1482.0</v>
+      </c>
+      <c r="CF110" t="n">
         <v>1482.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -28596,11 +28924,14 @@
       </c>
       <c r="CE111" t="n">
         <v>17085.0</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>17347.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -28847,11 +29178,14 @@
       </c>
       <c r="CE112" t="n">
         <v>431.0</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>446.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -29098,11 +29432,14 @@
       </c>
       <c r="CE113" t="n">
         <v>209.0</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -29349,11 +29686,14 @@
       </c>
       <c r="CE114" t="n">
         <v>1791.0</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>1796.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -29600,11 +29940,14 @@
       </c>
       <c r="CE115" t="n">
         <v>1225.0</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>1232.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -29851,11 +30194,14 @@
       </c>
       <c r="CE116" t="n">
         <v>605.0</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>609.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -30102,11 +30448,14 @@
       </c>
       <c r="CE117" t="n">
         <v>1543.0</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>1546.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -30352,12 +30701,15 @@
         <v>19.0</v>
       </c>
       <c r="CE118" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CF118" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -30603,12 +30955,15 @@
         <v>0.0</v>
       </c>
       <c r="CE119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -30855,11 +31210,14 @@
       </c>
       <c r="CE120" t="n">
         <v>384.0</v>
+      </c>
+      <c r="CF120" t="n">
+        <v>398.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -31105,12 +31463,15 @@
         <v>47.0</v>
       </c>
       <c r="CE121" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CF121" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -31356,12 +31717,15 @@
         <v>64.0</v>
       </c>
       <c r="CE122" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CF122" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -31608,11 +31972,14 @@
       </c>
       <c r="CE123" t="n">
         <v>107.0</v>
+      </c>
+      <c r="CF123" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -31858,12 +32225,15 @@
         <v>1188.0</v>
       </c>
       <c r="CE124" t="n">
+        <v>1217.0</v>
+      </c>
+      <c r="CF124" t="n">
         <v>1217.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -32110,11 +32480,14 @@
       </c>
       <c r="CE125" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CF125" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -32360,12 +32733,15 @@
         <v>0.0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -32612,11 +32988,14 @@
       </c>
       <c r="CE127" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CF127" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -32863,11 +33242,14 @@
       </c>
       <c r="CE128" t="n">
         <v>431.0</v>
+      </c>
+      <c r="CF128" t="n">
+        <v>442.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -33114,11 +33496,14 @@
       </c>
       <c r="CE129" t="n">
         <v>1688.0</v>
+      </c>
+      <c r="CF129" t="n">
+        <v>1730.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -33365,11 +33750,14 @@
       </c>
       <c r="CE130" t="n">
         <v>581.0</v>
+      </c>
+      <c r="CF130" t="n">
+        <v>589.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -33616,11 +34004,14 @@
       </c>
       <c r="CE131" t="n">
         <v>74.0</v>
+      </c>
+      <c r="CF131" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -33867,11 +34258,14 @@
       </c>
       <c r="CE132" t="n">
         <v>1578.0</v>
+      </c>
+      <c r="CF132" t="n">
+        <v>1590.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -34118,11 +34512,14 @@
       </c>
       <c r="CE133" t="n">
         <v>841.0</v>
+      </c>
+      <c r="CF133" t="n">
+        <v>868.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -34368,12 +34765,15 @@
         <v>14.0</v>
       </c>
       <c r="CE134" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CF134" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -34619,12 +35019,15 @@
         <v>34.0</v>
       </c>
       <c r="CE135" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CF135" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -34871,11 +35274,14 @@
       </c>
       <c r="CE136" t="n">
         <v>1250.0</v>
+      </c>
+      <c r="CF136" t="n">
+        <v>1322.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -35122,11 +35528,14 @@
       </c>
       <c r="CE137" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CF137" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -35372,12 +35781,15 @@
         <v>6.0</v>
       </c>
       <c r="CE138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CF138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -35623,12 +36035,15 @@
         <v>5.0</v>
       </c>
       <c r="CE139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CF139" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -35875,11 +36290,14 @@
       </c>
       <c r="CE140" t="n">
         <v>444.0</v>
+      </c>
+      <c r="CF140" t="n">
+        <v>461.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -36125,12 +36543,15 @@
         <v>64.0</v>
       </c>
       <c r="CE141" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CF141" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -36376,12 +36797,15 @@
         <v>2680.0</v>
       </c>
       <c r="CE142" t="n">
+        <v>2696.0</v>
+      </c>
+      <c r="CF142" t="n">
         <v>2696.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -36628,11 +37052,14 @@
       </c>
       <c r="CE143" t="n">
         <v>395.0</v>
+      </c>
+      <c r="CF143" t="n">
+        <v>402.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -36879,11 +37306,14 @@
       </c>
       <c r="CE144" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CF144" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -37129,12 +37559,15 @@
         <v>191.0</v>
       </c>
       <c r="CE145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="CF145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -37381,11 +37814,14 @@
       </c>
       <c r="CE146" t="n">
         <v>222.0</v>
+      </c>
+      <c r="CF146" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -37632,11 +38068,14 @@
       </c>
       <c r="CE147" t="n">
         <v>709.0</v>
+      </c>
+      <c r="CF147" t="n">
+        <v>731.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -37882,12 +38321,15 @@
         <v>226.0</v>
       </c>
       <c r="CE148" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="CF148" t="n">
         <v>226.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -38134,11 +38576,14 @@
       </c>
       <c r="CE149" t="n">
         <v>1040.0</v>
+      </c>
+      <c r="CF149" t="n">
+        <v>1061.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -38385,11 +38830,14 @@
       </c>
       <c r="CE150" t="n">
         <v>251.0</v>
+      </c>
+      <c r="CF150" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -38636,11 +39084,14 @@
       </c>
       <c r="CE151" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CF151" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -38886,12 +39337,15 @@
         <v>213.0</v>
       </c>
       <c r="CE152" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="CF152" t="n">
         <v>213.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -39138,11 +39592,14 @@
       </c>
       <c r="CE153" t="n">
         <v>270.0</v>
+      </c>
+      <c r="CF153" t="n">
+        <v>282.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -39388,12 +39845,15 @@
         <v>0.0</v>
       </c>
       <c r="CE154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -39639,12 +40099,15 @@
         <v>0.0</v>
       </c>
       <c r="CE155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -39890,12 +40353,15 @@
         <v>0.0</v>
       </c>
       <c r="CE156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -40141,12 +40607,15 @@
         <v>108.0</v>
       </c>
       <c r="CE157" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="CF157" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -40392,12 +40861,15 @@
         <v>0.0</v>
       </c>
       <c r="CE158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -40643,12 +41115,15 @@
         <v>14.0</v>
       </c>
       <c r="CE159" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CF159" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -40895,11 +41370,14 @@
       </c>
       <c r="CE160" t="n">
         <v>169.0</v>
+      </c>
+      <c r="CF160" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -41146,11 +41624,14 @@
       </c>
       <c r="CE161" t="n">
         <v>118.0</v>
+      </c>
+      <c r="CF161" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -41396,12 +41877,15 @@
         <v>249.0</v>
       </c>
       <c r="CE162" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="CF162" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -41648,11 +42132,14 @@
       </c>
       <c r="CE163" t="n">
         <v>128.0</v>
+      </c>
+      <c r="CF163" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -41899,11 +42386,14 @@
       </c>
       <c r="CE164" t="n">
         <v>269.0</v>
+      </c>
+      <c r="CF164" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -42149,12 +42639,15 @@
         <v>0.0</v>
       </c>
       <c r="CE165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -42401,11 +42894,14 @@
       </c>
       <c r="CE166" t="n">
         <v>813.0</v>
+      </c>
+      <c r="CF166" t="n">
+        <v>845.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -42651,12 +43147,15 @@
         <v>49.0</v>
       </c>
       <c r="CE167" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CF167" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -42902,12 +43401,15 @@
         <v>0.0</v>
       </c>
       <c r="CE168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -43153,12 +43655,15 @@
         <v>771.0</v>
       </c>
       <c r="CE169" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="CF169" t="n">
         <v>771.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -43404,12 +43909,15 @@
         <v>25.0</v>
       </c>
       <c r="CE170" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CF170" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -43655,12 +44163,15 @@
         <v>0.0</v>
       </c>
       <c r="CE171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -43907,11 +44418,14 @@
       </c>
       <c r="CE172" t="n">
         <v>255.0</v>
+      </c>
+      <c r="CF172" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -44158,11 +44672,14 @@
       </c>
       <c r="CE173" t="n">
         <v>5221.0</v>
+      </c>
+      <c r="CF173" t="n">
+        <v>5381.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -44409,11 +44926,14 @@
       </c>
       <c r="CE174" t="n">
         <v>257.0</v>
+      </c>
+      <c r="CF174" t="n">
+        <v>264.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -44660,11 +45180,14 @@
       </c>
       <c r="CE175" t="n">
         <v>207.0</v>
+      </c>
+      <c r="CF175" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -44910,12 +45433,15 @@
         <v>46.0</v>
       </c>
       <c r="CE176" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CF176" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -45162,11 +45688,14 @@
       </c>
       <c r="CE177" t="n">
         <v>756.0</v>
+      </c>
+      <c r="CF177" t="n">
+        <v>770.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -45413,11 +45942,14 @@
       </c>
       <c r="CE178" t="n">
         <v>1869.0</v>
+      </c>
+      <c r="CF178" t="n">
+        <v>1893.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -45663,12 +46195,15 @@
         <v>233.0</v>
       </c>
       <c r="CE179" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="CF179" t="n">
         <v>244.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -45914,12 +46449,15 @@
         <v>0.0</v>
       </c>
       <c r="CE180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -46166,11 +46704,14 @@
       </c>
       <c r="CE181" t="n">
         <v>8802.0</v>
+      </c>
+      <c r="CF181" t="n">
+        <v>8914.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -46416,12 +46957,15 @@
         <v>96.0</v>
       </c>
       <c r="CE182" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CF182" t="n">
         <v>96.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -46668,11 +47212,14 @@
       </c>
       <c r="CE183" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CF183" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -46919,11 +47466,14 @@
       </c>
       <c r="CE184" t="n">
         <v>2525.0</v>
+      </c>
+      <c r="CF184" t="n">
+        <v>2627.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -47170,11 +47720,14 @@
       </c>
       <c r="CE185" t="n">
         <v>289.0</v>
+      </c>
+      <c r="CF185" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -47421,11 +47974,14 @@
       </c>
       <c r="CE186" t="n">
         <v>423.0</v>
+      </c>
+      <c r="CF186" t="n">
+        <v>429.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -47672,11 +48228,14 @@
       </c>
       <c r="CE187" t="n">
         <v>2045.0</v>
+      </c>
+      <c r="CF187" t="n">
+        <v>2077.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -47923,11 +48482,14 @@
       </c>
       <c r="CE188" t="n">
         <v>311.0</v>
+      </c>
+      <c r="CF188" t="n">
+        <v>325.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -48174,11 +48736,14 @@
       </c>
       <c r="CE189" t="n">
         <v>220.0</v>
+      </c>
+      <c r="CF189" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -48425,11 +48990,14 @@
       </c>
       <c r="CE190" t="n">
         <v>1251.0</v>
+      </c>
+      <c r="CF190" t="n">
+        <v>1292.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -48675,12 +49243,15 @@
         <v>0.0</v>
       </c>
       <c r="CE191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -48926,12 +49497,15 @@
         <v>35.0</v>
       </c>
       <c r="CE192" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CF192" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -49177,12 +49751,15 @@
         <v>330.0</v>
       </c>
       <c r="CE193" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="CF193" t="n">
         <v>332.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -49428,12 +50005,15 @@
         <v>0.0</v>
       </c>
       <c r="CE194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -49680,11 +50260,14 @@
       </c>
       <c r="CE195" t="n">
         <v>169.0</v>
+      </c>
+      <c r="CF195" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -49930,12 +50513,15 @@
         <v>20.0</v>
       </c>
       <c r="CE196" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CF196" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -50182,11 +50768,14 @@
       </c>
       <c r="CE197" t="n">
         <v>208.0</v>
+      </c>
+      <c r="CF197" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -50433,11 +51022,14 @@
       </c>
       <c r="CE198" t="n">
         <v>687.0</v>
+      </c>
+      <c r="CF198" t="n">
+        <v>693.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -50683,12 +51275,15 @@
         <v>47.0</v>
       </c>
       <c r="CE199" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CF199" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -50934,12 +51529,15 @@
         <v>3.0</v>
       </c>
       <c r="CE200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CF200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -51186,11 +51784,14 @@
       </c>
       <c r="CE201" t="n">
         <v>265.0</v>
+      </c>
+      <c r="CF201" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -51437,11 +52038,14 @@
       </c>
       <c r="CE202" t="n">
         <v>1417.0</v>
+      </c>
+      <c r="CF202" t="n">
+        <v>1431.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -51688,11 +52292,14 @@
       </c>
       <c r="CE203" t="n">
         <v>429.0</v>
+      </c>
+      <c r="CF203" t="n">
+        <v>436.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -51939,11 +52546,14 @@
       </c>
       <c r="CE204" t="n">
         <v>1297.0</v>
+      </c>
+      <c r="CF204" t="n">
+        <v>1328.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -52189,12 +52799,15 @@
         <v>285.0</v>
       </c>
       <c r="CE205" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="CF205" t="n">
         <v>295.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -52441,11 +53054,14 @@
       </c>
       <c r="CE206" t="n">
         <v>178.0</v>
+      </c>
+      <c r="CF206" t="n">
+        <v>184.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -52692,11 +53308,14 @@
       </c>
       <c r="CE207" t="n">
         <v>179.0</v>
+      </c>
+      <c r="CF207" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -52942,12 +53561,15 @@
         <v>805.0</v>
       </c>
       <c r="CE208" t="n">
+        <v>805.0</v>
+      </c>
+      <c r="CF208" t="n">
         <v>805.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -53194,11 +53816,14 @@
       </c>
       <c r="CE209" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CF209" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -53444,12 +54069,15 @@
         <v>82.0</v>
       </c>
       <c r="CE210" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="CF210" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -53695,12 +54323,15 @@
         <v>0.0</v>
       </c>
       <c r="CE211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -53947,11 +54578,14 @@
       </c>
       <c r="CE212" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CF212" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -54198,11 +54832,14 @@
       </c>
       <c r="CE213" t="n">
         <v>529.0</v>
+      </c>
+      <c r="CF213" t="n">
+        <v>534.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -54449,11 +55086,14 @@
       </c>
       <c r="CE214" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CF214" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -54699,12 +55339,15 @@
         <v>6853.0</v>
       </c>
       <c r="CE215" t="n">
+        <v>6937.0</v>
+      </c>
+      <c r="CF215" t="n">
         <v>6937.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -54950,12 +55593,15 @@
         <v>412.0</v>
       </c>
       <c r="CE216" t="n">
+        <v>415.0</v>
+      </c>
+      <c r="CF216" t="n">
         <v>415.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -55202,11 +55848,14 @@
       </c>
       <c r="CE217" t="n">
         <v>1403.0</v>
+      </c>
+      <c r="CF217" t="n">
+        <v>1407.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -55453,11 +56102,14 @@
       </c>
       <c r="CE218" t="n">
         <v>232.0</v>
+      </c>
+      <c r="CF218" t="n">
+        <v>239.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -55703,12 +56355,15 @@
         <v>53.0</v>
       </c>
       <c r="CE219" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CF219" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -55954,12 +56609,15 @@
         <v>90.0</v>
       </c>
       <c r="CE220" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CF220" t="n">
         <v>96.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -56205,12 +56863,15 @@
         <v>160.0</v>
       </c>
       <c r="CE221" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="CF221" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -56457,11 +57118,14 @@
       </c>
       <c r="CE222" t="n">
         <v>326.0</v>
+      </c>
+      <c r="CF222" t="n">
+        <v>335.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -56708,11 +57372,14 @@
       </c>
       <c r="CE223" t="n">
         <v>26750.0</v>
+      </c>
+      <c r="CF223" t="n">
+        <v>27012.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -56959,11 +57626,14 @@
       </c>
       <c r="CE224" t="n">
         <v>7318.0</v>
+      </c>
+      <c r="CF224" t="n">
+        <v>7366.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -57209,12 +57879,15 @@
         <v>7.0</v>
       </c>
       <c r="CE225" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CF225" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -57460,12 +58133,15 @@
         <v>0.0</v>
       </c>
       <c r="CE226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -57711,12 +58387,15 @@
         <v>22.0</v>
       </c>
       <c r="CE227" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CF227" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -57963,11 +58642,14 @@
       </c>
       <c r="CE228" t="n">
         <v>736.0</v>
+      </c>
+      <c r="CF228" t="n">
+        <v>760.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -58214,11 +58896,14 @@
       </c>
       <c r="CE229" t="n">
         <v>7283.0</v>
+      </c>
+      <c r="CF229" t="n">
+        <v>7390.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -58464,12 +59149,15 @@
         <v>0.0</v>
       </c>
       <c r="CE230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -58716,11 +59404,14 @@
       </c>
       <c r="CE231" t="n">
         <v>140.0</v>
+      </c>
+      <c r="CF231" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -58966,12 +59657,15 @@
         <v>538.0</v>
       </c>
       <c r="CE232" t="n">
+        <v>557.0</v>
+      </c>
+      <c r="CF232" t="n">
         <v>557.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -59218,11 +59912,14 @@
       </c>
       <c r="CE233" t="n">
         <v>1583.0</v>
+      </c>
+      <c r="CF233" t="n">
+        <v>1599.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -59469,11 +60166,14 @@
       </c>
       <c r="CE234" t="n">
         <v>233.0</v>
+      </c>
+      <c r="CF234" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -59720,11 +60420,14 @@
       </c>
       <c r="CE235" t="n">
         <v>86.0</v>
+      </c>
+      <c r="CF235" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -59970,12 +60673,15 @@
         <v>0.0</v>
       </c>
       <c r="CE236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -60221,12 +60927,15 @@
         <v>1254.0</v>
       </c>
       <c r="CE237" t="n">
+        <v>1288.0</v>
+      </c>
+      <c r="CF237" t="n">
         <v>1288.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -60472,12 +61181,15 @@
         <v>9.0</v>
       </c>
       <c r="CE238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CF238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -60724,11 +61436,14 @@
       </c>
       <c r="CE239" t="n">
         <v>651.0</v>
+      </c>
+      <c r="CF239" t="n">
+        <v>658.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -60975,11 +61690,14 @@
       </c>
       <c r="CE240" t="n">
         <v>267.0</v>
+      </c>
+      <c r="CF240" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -61226,11 +61944,14 @@
       </c>
       <c r="CE241" t="n">
         <v>366.0</v>
+      </c>
+      <c r="CF241" t="n">
+        <v>380.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -61477,11 +62198,14 @@
       </c>
       <c r="CE242" t="n">
         <v>398.0</v>
+      </c>
+      <c r="CF242" t="n">
+        <v>403.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -61727,12 +62451,15 @@
         <v>0.0</v>
       </c>
       <c r="CE243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -61979,11 +62706,14 @@
       </c>
       <c r="CE244" t="n">
         <v>299.0</v>
+      </c>
+      <c r="CF244" t="n">
+        <v>302.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -62230,11 +62960,14 @@
       </c>
       <c r="CE245" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CF245" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -62480,12 +63213,15 @@
         <v>0.0</v>
       </c>
       <c r="CE246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -62732,11 +63468,14 @@
       </c>
       <c r="CE247" t="n">
         <v>265.0</v>
+      </c>
+      <c r="CF247" t="n">
+        <v>268.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -62983,11 +63722,14 @@
       </c>
       <c r="CE248" t="n">
         <v>138.0</v>
+      </c>
+      <c r="CF248" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -63234,11 +63976,14 @@
       </c>
       <c r="CE249" t="n">
         <v>3672.0</v>
+      </c>
+      <c r="CF249" t="n">
+        <v>3887.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -63485,11 +64230,14 @@
       </c>
       <c r="CE250" t="n">
         <v>566.0</v>
+      </c>
+      <c r="CF250" t="n">
+        <v>577.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -63736,11 +64484,14 @@
       </c>
       <c r="CE251" t="n">
         <v>168.0</v>
+      </c>
+      <c r="CF251" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -63987,11 +64738,14 @@
       </c>
       <c r="CE252" t="n">
         <v>828.0</v>
+      </c>
+      <c r="CF252" t="n">
+        <v>836.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -64237,12 +64991,15 @@
         <v>1127.0</v>
       </c>
       <c r="CE253" t="n">
+        <v>1138.0</v>
+      </c>
+      <c r="CF253" t="n">
         <v>1138.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -64488,12 +65245,15 @@
         <v>0.0</v>
       </c>
       <c r="CE254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -64740,11 +65500,14 @@
       </c>
       <c r="CE255" t="n">
         <v>172.0</v>
+      </c>
+      <c r="CF255" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -64991,11 +65754,14 @@
       </c>
       <c r="CE256" t="n">
         <v>147.0</v>
+      </c>
+      <c r="CF256" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -65242,6 +66008,9 @@
       </c>
       <c r="CE257" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CF257" t="n">
+        <v>81.0</v>
       </c>
     </row>
   </sheetData>
